--- a/biology/Botanique/Square_Sainte-Odile/Square_Sainte-Odile.xlsx
+++ b/biology/Botanique/Square_Sainte-Odile/Square_Sainte-Odile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Sainte-Odile est un square du 17e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est encadré par la rue Jean-Moréas et l'église Sainte-Odile à l'ouest, le boulevard de la Somme au nord, la rue de Courcelles à l'est et l'avenue Stéphane-Mallarmé au sud.
 Ce site est desservi par les stations de métro Pereire et Porte de Champerret.
@@ -544,11 +558,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1976, le square s'étend sur 11 344 m2.
 Il abrite une stèle en hommage à la harpiste Lily Laskine. 
-Le 19 mai 2019, deux allées aux noms d'une part d'Arie et Gabriel Sandler et d'autre part de Myriam Monsonego, les trois enfants assassinés à Toulouse lors des attentats de mars 2012, y sont inaugurées[1].
+Le 19 mai 2019, deux allées aux noms d'une part d'Arie et Gabriel Sandler et d'autre part de Myriam Monsonego, les trois enfants assassinés à Toulouse lors des attentats de mars 2012, y sont inaugurées.
 </t>
         </is>
       </c>
